--- a/GenerateZaFoms/Template/ZaDelay.xlsx
+++ b/GenerateZaFoms/Template/ZaDelay.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +489,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -539,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -597,6 +604,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -621,7 +629,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1010,116 +1020,116 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" s="6" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
     </row>
     <row r="6" spans="1:24" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
     </row>
     <row r="7" spans="1:24" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
     </row>
     <row r="8" spans="1:24" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
     </row>
     <row r="9" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -1338,25 +1348,25 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
     </row>
     <row r="18" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="7" t="s">
@@ -1382,31 +1392,31 @@
       <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
@@ -1491,26 +1501,26 @@
       <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -1576,7 +1586,7 @@
       <c r="B26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N26" s="35"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
@@ -1605,15 +1615,15 @@
       <c r="K27" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
@@ -1624,29 +1634,29 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
@@ -1657,57 +1667,57 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
     </row>
     <row r="32" spans="1:25" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
@@ -1917,31 +1927,31 @@
       <c r="A41" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
@@ -2025,26 +2035,26 @@
       <c r="B45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
@@ -2106,32 +2116,32 @@
       <c r="X47" s="15"/>
     </row>
     <row r="48" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="25"/>
@@ -2220,16 +2230,16 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
       <c r="M52" s="6"/>
       <c r="N52" s="4" t="s">
         <v>66</v>
@@ -2294,7 +2304,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="E23:X23"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A6:X6"/>
@@ -2302,6 +2312,7 @@
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="B19:X19"/>
     <mergeCell ref="F17:X17"/>
+    <mergeCell ref="P27:X27"/>
     <mergeCell ref="E52:L52"/>
     <mergeCell ref="B29:X29"/>
     <mergeCell ref="B31:X31"/>

--- a/GenerateZaFoms/Template/ZaDelay.xlsx
+++ b/GenerateZaFoms/Template/ZaDelay.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -548,9 +548,6 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -605,22 +602,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -629,9 +611,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -641,6 +639,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -689,7 +690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,173 +938,173 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="4.140625" style="14" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="24" width="4.1796875" style="13" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="J1" s="5" t="s">
+    <row r="1" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="J3" s="5" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+      <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" s="5" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-    </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+    </row>
+    <row r="6" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+    </row>
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-    </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+    </row>
+    <row r="8" spans="1:24" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
@@ -1131,265 +1132,265 @@
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
     </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:24" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-    </row>
-    <row r="10" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="7" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-    </row>
-    <row r="12" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G12" s="7" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+    </row>
+    <row r="12" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" ht="14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-    </row>
-    <row r="14" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="7" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+    </row>
+    <row r="14" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="13" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-    </row>
-    <row r="16" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="7"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="7" t="s">
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+    </row>
+    <row r="16" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="6"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-    </row>
-    <row r="18" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="7" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+    </row>
+    <row r="18" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -1418,280 +1419,280 @@
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="14" t="s">
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="11"/>
-    </row>
-    <row r="22" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="7"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="7" t="s">
+      <c r="S21" s="10"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="10"/>
+    </row>
+    <row r="22" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="18"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="17"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="22"/>
-    </row>
-    <row r="25" spans="1:25" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="21"/>
+    </row>
+    <row r="25" spans="1:25" s="5" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-    </row>
-    <row r="26" spans="1:25" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+    </row>
+    <row r="26" spans="1:25" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-    </row>
-    <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="N26" s="26"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+    </row>
+    <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="13" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-    </row>
-    <row r="30" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+    </row>
+    <row r="30" spans="1:25" ht="14" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-    </row>
-    <row r="32" spans="1:25" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+    </row>
+    <row r="32" spans="1:25" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>46</v>
       </c>
@@ -1719,212 +1720,212 @@
       <c r="W32" s="30"/>
       <c r="X32" s="30"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-    </row>
-    <row r="34" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="7" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+    </row>
+    <row r="34" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="J34" s="2"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-    </row>
-    <row r="36" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G36" s="7" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-    </row>
-    <row r="38" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G38" s="7" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="13" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="M39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="N39" s="13"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-    </row>
-    <row r="40" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="7" t="s">
+      <c r="N39" s="12"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="G40" s="6"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+    </row>
+    <row r="41" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="31" t="s">
@@ -1953,169 +1954,169 @@
       <c r="W41" s="31"/>
       <c r="X41" s="31"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="14" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="14" t="s">
+      <c r="J43" s="10"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P43" s="14" t="s">
+      <c r="P43" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S43" s="11"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="11"/>
-    </row>
-    <row r="44" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="7" t="s">
+      <c r="S43" s="10"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="10"/>
+    </row>
+    <row r="44" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="9" t="s">
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+    </row>
+    <row r="45" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="9" t="s">
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="9" t="s">
+      <c r="P46" s="15"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-    </row>
-    <row r="47" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+    </row>
+    <row r="47" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="13" t="s">
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K47" s="26" t="s">
+      <c r="K47" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-    </row>
-    <row r="48" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P47" s="14"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+    </row>
+    <row r="48" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>64</v>
       </c>
@@ -2143,175 +2144,168 @@
       <c r="W48" s="30"/>
       <c r="X48" s="30"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="24" t="s">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-    </row>
-    <row r="50" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+    </row>
+    <row r="50" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
+      <c r="E50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="7" t="s">
+      <c r="J50" s="2"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R50" s="3"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
+      <c r="R50" s="2"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-    </row>
-    <row r="52" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="28" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+    </row>
+    <row r="52" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="4" t="s">
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-    </row>
-    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="24" t="s">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A6:X6"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A8:X8"/>
-    <mergeCell ref="B19:X19"/>
-    <mergeCell ref="F17:X17"/>
     <mergeCell ref="P27:X27"/>
     <mergeCell ref="E52:L52"/>
     <mergeCell ref="B29:X29"/>
@@ -2320,6 +2314,13 @@
     <mergeCell ref="B41:X41"/>
     <mergeCell ref="E45:X45"/>
     <mergeCell ref="A48:X48"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A6:X6"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A8:X8"/>
+    <mergeCell ref="B19:X19"/>
+    <mergeCell ref="F17:X17"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2332,7 +2333,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2344,7 +2345,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
